--- a/data/trans_camb/P6904-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 25,83</t>
+          <t>-10,84; 25,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 27,24</t>
+          <t>-10,66; 27,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,54; 28,45</t>
+          <t>-9,86; 28,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 22,47</t>
+          <t>-18,6; 22,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 37,08</t>
+          <t>-4,25; 36,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 30,17</t>
+          <t>-5,68; 30,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 18,58</t>
+          <t>-8,65; 19,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 27,22</t>
+          <t>-2,23; 26,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 22,97</t>
+          <t>-2,57; 24,28</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 95,5</t>
+          <t>-25,79; 100,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 102,34</t>
+          <t>-26,14; 105,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 108,33</t>
+          <t>-22,29; 109,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 91,56</t>
+          <t>-46,49; 92,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 162,35</t>
+          <t>-10,31; 152,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 133,88</t>
+          <t>-13,21; 145,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 64,93</t>
+          <t>-21,34; 70,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 95,43</t>
+          <t>-5,52; 91,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 82,65</t>
+          <t>-5,48; 89,48</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 49,5</t>
+          <t>2,75; 46,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,51; 54,65</t>
+          <t>9,75; 54,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 37,45</t>
+          <t>-2,07; 37,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-43,74; 2,03</t>
+          <t>-42,43; 4,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 40,8</t>
+          <t>-6,13; 41,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 24,51</t>
+          <t>-18,92; 22,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 20,74</t>
+          <t>-11,55; 21,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,74; 42,76</t>
+          <t>7,3; 41,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 26,09</t>
+          <t>-3,23; 24,99</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,77; 406,89</t>
+          <t>9,94; 381,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,9; 479,96</t>
+          <t>24,42; 442,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 309,11</t>
+          <t>-10,31; 321,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-82,67; 11,83</t>
+          <t>-83,63; 16,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,86; 120,76</t>
+          <t>-11,75; 113,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,29; 74,18</t>
+          <t>-32,39; 67,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 79,58</t>
+          <t>-28,58; 90,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,21; 173,52</t>
+          <t>18,39; 168,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 99,62</t>
+          <t>-9,67; 96,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,61; 3,81</t>
+          <t>-26,17; 3,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 7,38</t>
+          <t>-22,46; 7,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 15,46</t>
+          <t>-17,96; 15,37</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 36,08</t>
+          <t>-27,76; 34,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 49,28</t>
+          <t>-27,92; 50,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 55,15</t>
+          <t>-4,13; 53,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 4,56</t>
+          <t>-20,57; 5,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 9,66</t>
+          <t>-17,76; 10,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 16,89</t>
+          <t>-10,49; 16,86</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,89; 8,84</t>
+          <t>-37,17; 7,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,84; 11,96</t>
+          <t>-32,2; 13,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-24,87; 26,7</t>
+          <t>-26,39; 25,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-32,07; 111,63</t>
+          <t>-35,85; 103,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,56; 144,11</t>
+          <t>-39,72; 155,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 168,77</t>
+          <t>-5,68; 171,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 8,23</t>
+          <t>-30,03; 9,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 17,24</t>
+          <t>-26,51; 18,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-14,15; 28,91</t>
+          <t>-15,03; 30,32</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 15,69</t>
+          <t>-7,65; 15,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 17,09</t>
+          <t>-4,54; 17,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 19,8</t>
+          <t>-4,03; 20,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,56; 17,2</t>
+          <t>-18,04; 15,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 31,45</t>
+          <t>-2,91; 30,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 21,53</t>
+          <t>-12,09; 22,81</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,9; 11,06</t>
+          <t>-8,02; 11,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 17,21</t>
+          <t>0,26; 18,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 16,13</t>
+          <t>-2,24; 15,75</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 28,99</t>
+          <t>-12,27; 27,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 31,53</t>
+          <t>-7,33; 32,74</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 35,86</t>
+          <t>-6,11; 37,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-28,57; 35,86</t>
+          <t>-27,66; 33,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 70,31</t>
+          <t>-3,88; 67,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 47,24</t>
+          <t>-17,26; 52,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 20,32</t>
+          <t>-13,05; 20,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,15; 31,64</t>
+          <t>0,55; 34,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 29,92</t>
+          <t>-3,26; 29,85</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 28,03</t>
+          <t>-13,6; 28,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 32,52</t>
+          <t>-2,45; 32,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,99; 44,66</t>
+          <t>11,13; 46,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 24,44</t>
+          <t>-11,32; 26,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 29,1</t>
+          <t>-4,61; 29,33</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,53; 37,89</t>
+          <t>4,46; 36,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 22,16</t>
+          <t>-7,25; 21,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 25,36</t>
+          <t>0,08; 24,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,7; 38,18</t>
+          <t>12,71; 36,8</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 70,03</t>
+          <t>-24,31; 70,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 87,93</t>
+          <t>-4,85; 83,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,49; 118,24</t>
+          <t>17,96; 117,74</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 44,73</t>
+          <t>-16,55; 48,57</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 54,64</t>
+          <t>-5,19; 58,56</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,83; 72,51</t>
+          <t>5,61; 68,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-10,87; 43,29</t>
+          <t>-11,74; 42,38</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,35; 52,53</t>
+          <t>0,12; 50,56</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>20,34; 77,01</t>
+          <t>19,04; 75,34</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 10,88</t>
+          <t>-5,25; 10,3</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 15,06</t>
+          <t>-0,81; 13,99</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,81; 16,6</t>
+          <t>1,56; 16,46</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 9,17</t>
+          <t>-10,03; 9,21</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,95; 24,23</t>
+          <t>6,56; 24,63</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,2; 24,93</t>
+          <t>5,9; 25,79</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 7,32</t>
+          <t>-4,21; 7,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,77; 16,24</t>
+          <t>4,49; 16,13</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5,51; 18,05</t>
+          <t>6,19; 18,36</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 21,85</t>
+          <t>-9,27; 20,97</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>1,06; 30,57</t>
+          <t>-1,45; 27,9</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,4; 34,08</t>
+          <t>2,88; 33,9</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 19,28</t>
+          <t>-17,86; 19,86</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>10,39; 52,6</t>
+          <t>11,58; 54,02</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>9,17; 53,59</t>
+          <t>10,8; 58,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 14,97</t>
+          <t>-7,82; 15,19</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>9,31; 32,96</t>
+          <t>8,28; 32,51</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>9,93; 36,5</t>
+          <t>11,24; 37,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6904-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P6904-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
